--- a/Angular B10 B1.xlsx
+++ b/Angular B10 B1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="495" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="375" yWindow="495" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Angular B10 B1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
   <si>
     <t>Student Name</t>
   </si>
@@ -104,13 +104,7 @@
     <t>Sr. No</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>Present</t>
-  </si>
-  <si>
-    <t>Reason</t>
   </si>
   <si>
     <t>Abhijeet Kawhale (TL)</t>
@@ -214,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,7 +223,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -591,12 +584,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -619,12 +614,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -647,12 +644,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -675,12 +674,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -703,12 +704,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -731,12 +734,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -759,12 +764,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -787,12 +794,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -812,7 +821,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -830,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -851,23 +860,25 @@
       <c r="C1" s="4">
         <v>44927</v>
       </c>
-      <c r="D1" s="8">
-        <v>44958</v>
-      </c>
-      <c r="E1" s="5"/>
+      <c r="D1" s="4">
+        <v>45293</v>
+      </c>
+      <c r="E1" s="4">
+        <v>45294</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -876,13 +887,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -891,13 +902,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -906,13 +917,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -921,13 +932,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -936,13 +947,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -951,13 +962,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -966,13 +977,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7"/>
     </row>

--- a/Angular B10 B1.xlsx
+++ b/Angular B10 B1.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Ashish Gavhane</t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
 </sst>
 </file>
@@ -837,10 +840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -850,7 +853,7 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -866,8 +869,14 @@
       <c r="E1" s="4">
         <v>45294</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F1" s="4">
+        <v>45295</v>
+      </c>
+      <c r="G1" s="4">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -880,9 +889,17 @@
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -895,9 +912,17 @@
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -910,9 +935,17 @@
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -925,9 +958,17 @@
       <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -940,9 +981,17 @@
       <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -955,9 +1004,17 @@
       <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -970,9 +1027,17 @@
       <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -985,11 +1050,19 @@
       <c r="D9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D9 D2:E2 C2:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:G9">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>
